--- a/POM_Magic/src/MB/testdata/testdata.xlsx
+++ b/POM_Magic/src/MB/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2565" windowWidth="19320" windowHeight="6300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14430" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="testcases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>test_name</t>
   </si>
@@ -24,67 +24,58 @@
     <t>runmode</t>
   </si>
   <si>
+    <t>LoginTest</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>vinayak.bansal@gmail.com</t>
+  </si>
+  <si>
+    <t>admin@1234</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>Property_Type</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>SearchBuy</t>
+  </si>
+  <si>
+    <t>BudgetBuy</t>
+  </si>
+  <si>
+    <t>bhk</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>prateek wisteria, Sector 77, Noi</t>
+  </si>
+  <si>
+    <t>Socity</t>
+  </si>
+  <si>
+    <t>Prateek Wisteria</t>
+  </si>
+  <si>
+    <t>PropertySearchTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>ValidateLinks</t>
-  </si>
-  <si>
-    <t>ValidateTitle</t>
-  </si>
-  <si>
-    <t>NewTestCase</t>
-  </si>
-  <si>
-    <t>LoginTest</t>
-  </si>
-  <si>
-    <t>LandingPageTest</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>vinayak.bansal@gmail.com</t>
-  </si>
-  <si>
-    <t>admin@1234</t>
-  </si>
-  <si>
-    <t>Flat</t>
-  </si>
-  <si>
-    <t>Property_Type</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>SearchBuy</t>
-  </si>
-  <si>
-    <t>BudgetBuy</t>
-  </si>
-  <si>
-    <t>bhk</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>prateek wisteria, Sector 77, Noi</t>
-  </si>
-  <si>
-    <t>Socity</t>
-  </si>
-  <si>
-    <t>Prateek Wisteria</t>
   </si>
 </sst>
 </file>
@@ -435,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,42 +448,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -517,48 +484,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
